--- a/candidatePolymers.xlsx
+++ b/candidatePolymers.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88C00FD-6658-4FD2-A4E1-FD7B47874CFF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73811FFB-7D27-4A43-ADD7-47A1F45BA242}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23685" yWindow="3330" windowWidth="12435" windowHeight="6285" xr2:uid="{C74DB7A0-B3A2-4579-87BB-9DD1A019994B}"/>
+    <workbookView xWindow="16365" yWindow="3330" windowWidth="12435" windowHeight="6285" xr2:uid="{C74DB7A0-B3A2-4579-87BB-9DD1A019994B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="bTBLFN1A" localSheetId="0">Sheet1!$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$F$20</definedName>
+    <definedName name="bTBLFN1A" localSheetId="0">Sheet1!$C$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,17 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="142">
   <si>
     <t>https://www.sciencedirect.com/science/article/pii/S0266353803001787</t>
   </si>
   <si>
-    <t>Nylon6,6</t>
-  </si>
-  <si>
-    <t>PA-6,6</t>
-  </si>
-  <si>
     <t>Polymer</t>
   </si>
   <si>
@@ -81,82 +76,398 @@
     <t>Dimethyl accetamide</t>
   </si>
   <si>
-    <t>Protective clothing
-Nanofiber reinforced composites</t>
-  </si>
-  <si>
     <t>Polycarboate, PC</t>
   </si>
   <si>
-    <r>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2E2E2E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF2E2E2E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=60,000</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF2E2E2E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-MI=8–10 g/10 min</t>
-    </r>
-  </si>
-  <si>
-    <t>10 wt.%
-15 wt.%
-14–20 wt.%</t>
-  </si>
-  <si>
-    <t>Protective clothing
-Electret filter</t>
-  </si>
-  <si>
-    <t>Protective clothing
-Sensor, filter
-Electret filter</t>
-  </si>
-  <si>
     <t>Polyacrylonitrile, PAN</t>
   </si>
   <si>
-    <t>Dimethyl formamide:tetrahydrofuran
-Dichlormethane
-Chloroform, tetrahydrofuran
-Dimethylformamide:tetrahydrofuran</t>
-  </si>
-  <si>
-    <t>600 mgPAN/10-5m3 dimethylformamide
-15 wt.%</t>
-  </si>
-  <si>
     <t>Carbon nanofiber</t>
+  </si>
+  <si>
+    <t>Polyvinil alcohol, PVA</t>
+  </si>
+  <si>
+    <t>Mn=65,000</t>
+  </si>
+  <si>
+    <t>Distilled water</t>
+  </si>
+  <si>
+    <t>Polylactic acid, PLA</t>
+  </si>
+  <si>
+    <t>Polyethylene-co-vinyl acetate, PEVA</t>
+  </si>
+  <si>
+    <t>Mw=60.4kDa</t>
+  </si>
+  <si>
+    <t>14 wt.%</t>
+  </si>
+  <si>
+    <t>Drug delivery system</t>
+  </si>
+  <si>
+    <t>PEVA/PLA</t>
+  </si>
+  <si>
+    <t>PEVA/PLA=50/50</t>
+  </si>
+  <si>
+    <t>Polymethacrylate (PMMA) / tetrahydroperfluorooctylacrylate (TAN)</t>
+  </si>
+  <si>
+    <t>0–10% TAN</t>
+  </si>
+  <si>
+    <t>Dimethyl formamide : toluene (1:9)</t>
+  </si>
+  <si>
+    <t>2,000,000 g/mol</t>
+  </si>
+  <si>
+    <t>7–10 wt.%</t>
+  </si>
+  <si>
+    <t>MI=8–10 g/10 min</t>
+  </si>
+  <si>
+    <t>poly(l-lactic acid) Mw =100,000</t>
+  </si>
+  <si>
+    <t>Nylon6,6, PA-6,6</t>
+  </si>
+  <si>
+    <t>Electret filter</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>nanofiber reinforced composites</t>
+  </si>
+  <si>
+    <t>Dimethyl formamide:tetrahydrofuran (1:1)</t>
+  </si>
+  <si>
+    <t>Dichlormethane</t>
+  </si>
+  <si>
+    <t>15 wt.%</t>
+  </si>
+  <si>
+    <t>Sensor, filter</t>
+  </si>
+  <si>
+    <t>Mw=60,000</t>
+  </si>
+  <si>
+    <t>Chloroform, tetrahydrofuran</t>
+  </si>
+  <si>
+    <t>Dimethylformamide:tetrahydrofuran (1:1)</t>
+  </si>
+  <si>
+    <t>14–15 wt.%</t>
+  </si>
+  <si>
+    <t>20 wt.%</t>
+  </si>
+  <si>
+    <t>600 mgPAN/10-5m3 dimethylformamide</t>
+  </si>
+  <si>
+    <t>8–16 wt.%</t>
+  </si>
+  <si>
+    <t>4–10 wt.%</t>
+  </si>
+  <si>
+    <t>Mn=150,000</t>
+  </si>
+  <si>
+    <t>1–10 wt.%</t>
+  </si>
+  <si>
+    <t>poly(d, l-lactic acid) Mw =109,000</t>
+  </si>
+  <si>
+    <t>Membrane for prevention of surfery induced-adhesion</t>
+  </si>
+  <si>
+    <t>Methylene chloride and dimethyl formamide</t>
+  </si>
+  <si>
+    <t>Same as above</t>
+  </si>
+  <si>
+    <t>poly(l-lactic acid) Mn =150,000 g/mol</t>
+  </si>
+  <si>
+    <t>5 wt.%</t>
+  </si>
+  <si>
+    <t>Sensor, Filter</t>
+  </si>
+  <si>
+    <t>Mw=205 kDa</t>
+  </si>
+  <si>
+    <t>Dichloromethane</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Polyethylene oxide, PEO</t>
+  </si>
+  <si>
+    <t>Mw =400,000</t>
+  </si>
+  <si>
+    <t>Mw =9105 g/mol</t>
+  </si>
+  <si>
+    <t>Distilled water and ethanol or NaCl</t>
+  </si>
+  <si>
+    <t>1–4.3 wt.%</t>
+  </si>
+  <si>
+    <t>Distilled water, distilled water and chloroform, distilled water and isopropanol</t>
+  </si>
+  <si>
+    <t>Mw=1,000,000</t>
+  </si>
+  <si>
+    <t>Distilled water:ethanol (3:2)</t>
+  </si>
+  <si>
+    <t>4 wt.%</t>
+  </si>
+  <si>
+    <t>Microelectronic wiring, interconnects</t>
+  </si>
+  <si>
+    <t>Mw=300,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distilled water, chloroform, acetone, ethanol </t>
+  </si>
+  <si>
+    <t>4–10%</t>
+  </si>
+  <si>
+    <t>Mn=58,000</t>
+  </si>
+  <si>
+    <t>Mn=100,000</t>
+  </si>
+  <si>
+    <t>Isopropyle alcohol+water</t>
+  </si>
+  <si>
+    <t>Isopropanol:water (6:1)</t>
+  </si>
+  <si>
+    <t>M=300 K</t>
+  </si>
+  <si>
+    <t>3–10 wt.%</t>
+  </si>
+  <si>
+    <t>M=100 K to 2 M</t>
+  </si>
+  <si>
+    <t>Chloroform</t>
+  </si>
+  <si>
+    <t>0.5–30 wt.%</t>
+  </si>
+  <si>
+    <t>Collagen-PEO</t>
+  </si>
+  <si>
+    <t>Purified collagen, nominal molecular weight 900 kD</t>
+  </si>
+  <si>
+    <t>Hydrochloric acid</t>
+  </si>
+  <si>
+    <t>1–2 wt%</t>
+  </si>
+  <si>
+    <t>Wound healing, tissue engineering, hemostatic agents</t>
+  </si>
+  <si>
+    <t>PEO: Mn=900,000</t>
+  </si>
+  <si>
+    <t>Hydrochloric acid (pH =2.0)</t>
+  </si>
+  <si>
+    <t>1 wt%</t>
+  </si>
+  <si>
+    <t>Wound healing, tissue engineering</t>
+  </si>
+  <si>
+    <t>Polyaniline (PANI) / PEO blend</t>
+  </si>
+  <si>
+    <t>Conductive fiber</t>
+  </si>
+  <si>
+    <t>Camphorsulfonic acid</t>
+  </si>
+  <si>
+    <t>2 wt.%</t>
+  </si>
+  <si>
+    <t>Conducting fiber</t>
+  </si>
+  <si>
+    <t>11–50 wt.%</t>
+  </si>
+  <si>
+    <t>Pan / HCSA / PEO</t>
+  </si>
+  <si>
+    <t>2–4 wt.%</t>
+  </si>
+  <si>
+    <t>Pan: Mw=120,000 Da, PEO: Mw=900,000 Da</t>
+  </si>
+  <si>
+    <t>Polyaniline (PANI) / Polystyrene (PS)</t>
+  </si>
+  <si>
+    <t>Silk-like polymer with fibronectin functionality</t>
+  </si>
+  <si>
+    <t>0.8–16.2 wt.%</t>
+  </si>
+  <si>
+    <t>Implantable device</t>
+  </si>
+  <si>
+    <t>Polyvinylcarbazole</t>
+  </si>
+  <si>
+    <t>Mw =1,100,000 g/mol</t>
+  </si>
+  <si>
+    <t>7.5 wt.%</t>
+  </si>
+  <si>
+    <t>19 polyacrylic acid-polypyrene</t>
+  </si>
+  <si>
+    <t>methanol, PAA-PM</t>
+  </si>
+  <si>
+    <t>Mw=50,000 g/mol [158] Dimethyl formamide Optical sensor</t>
+  </si>
+  <si>
+    <t>20 Polystyrene, PS Mw=190,000 [114] Tetrahydrofuran, dimethylformamide,</t>
+  </si>
+  <si>
+    <t>CS2(carbon disulfide), toluene,</t>
+  </si>
+  <si>
+    <t>18–35 wt.%</t>
+  </si>
+  <si>
+    <t>M=200 kDa [81] Methylethylketone 8% Enzymatic biotransformation</t>
+  </si>
+  <si>
+    <t>[129] Chloroform, dimethylformamide 2.5–10.7%</t>
+  </si>
+  <si>
+    <t>[141] Tetrahydrofuran 25 wt.%</t>
+  </si>
+  <si>
+    <t>M=280,000 [90] Dimethylformamide 30 wt.% (Flat ribbons)</t>
+  </si>
+  <si>
+    <t>Mw=280,000 [151] Tetrahydrofuran 15 wt.% Catalyst, filter</t>
+  </si>
+  <si>
+    <t>Mw=280,000/Mw=28,000: 90/1 [151] Tetrahydrofuran 15 wt.% Catalyst, filter</t>
+  </si>
+  <si>
+    <t>Mw=280,000/Mw=28,000 : 50/50 [151] Tetrahydrofuran 15 wt.% Catalyst, filter</t>
+  </si>
+  <si>
+    <t>Mw=280,000/Mw=2,430;90/10 [151] Tetrahydrofuran 15 wt.% Catalyst, filter</t>
+  </si>
+  <si>
+    <t>21 Polymethacrylate, PMMA Mw=540,000 [114] Tetrahydrofuran, acetone, chloroform</t>
+  </si>
+  <si>
+    <t>22 Polyamide, PA [66] Dimethylacetamide Glass fiber filter media</t>
+  </si>
+  <si>
+    <t>23 Silk/PEO blend Mw(PEO)=900,000 g/mol [82] Silkaqueous solutions 4.8–8.8 wt.% Biomaterial scaffolds</t>
+  </si>
+  <si>
+    <t>24 poly vinyl phenol, PVP Mw=20,000, 100,000</t>
+  </si>
+  <si>
+    <t>[83]</t>
+  </si>
+  <si>
+    <t>Tetrahydrofuran 20, 60% (wt./vol.) Antimicrobial agent</t>
+  </si>
+  <si>
+    <t>25 Polyvinylchloride, PVC [100,101] Tetrahydrofuran/dimethylformamide=100/0,</t>
+  </si>
+  <si>
+    <t>80/20, 60/40, 50/50, 40/60, 20/80, 0/100 (vol.%)</t>
+  </si>
+  <si>
+    <t>10–15 wt.%</t>
+  </si>
+  <si>
+    <t>26 Cellulose acetate, CA [105] Acetone, acetic acid, dimethylacetamide 12.5–20% Membrane</t>
+  </si>
+  <si>
+    <t>27 Mixture of PAA-PM (polyacrylic acid –</t>
+  </si>
+  <si>
+    <t>poly (pyrene methanol) ) and</t>
+  </si>
+  <si>
+    <t>polyurethane</t>
+  </si>
+  <si>
+    <t>[154] Dimethylformamide 26 wt.% Optical sensor</t>
+  </si>
+  <si>
+    <t>28 Polyvinil alcohol (PVA)/Silica, PVA: Mn=86,000, silica content (wt.%):</t>
+  </si>
+  <si>
+    <t>0, 22, 34, 40, 49, 59 [132]</t>
+  </si>
+  <si>
+    <t>Polyethylene Terephtalate, PET</t>
+  </si>
+  <si>
+    <t>Mw=10,000–20,000 g/mol</t>
+  </si>
+  <si>
+    <t>Dichlormethane and trifluoracetic</t>
+  </si>
+  <si>
+    <t>Dichloromethane:trifluoroacetic acid (1:1)</t>
+  </si>
+  <si>
+    <t>12–18 wt.%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,12 +513,6 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF2E2E2E"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -230,30 +535,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -571,131 +873,816 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FB3FA6-347F-463A-A59E-9A9DB89F6BA0}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="40.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="67.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="C7" s="2"/>
+      <c r="F7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E13" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>10</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="B29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D39" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>13</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="B42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>14</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="B44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="B48" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>16</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B50" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>17</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="B51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>18</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
+      <c r="B52" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D53" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:F20" xr:uid="{FD2DD778-27C5-475B-9427-95E919F9F12D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/candidatePolymers.xlsx
+++ b/candidatePolymers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73811FFB-7D27-4A43-ADD7-47A1F45BA242}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCBE4B4-24D3-4BB2-9C82-3D8DF0B938CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16365" yWindow="3330" windowWidth="12435" windowHeight="6285" xr2:uid="{C74DB7A0-B3A2-4579-87BB-9DD1A019994B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="141">
   <si>
     <t>https://www.sciencedirect.com/science/article/pii/S0266353803001787</t>
   </si>
@@ -358,12 +358,6 @@
     <t>7.5 wt.%</t>
   </si>
   <si>
-    <t>19 polyacrylic acid-polypyrene</t>
-  </si>
-  <si>
-    <t>methanol, PAA-PM</t>
-  </si>
-  <si>
     <t>Mw=50,000 g/mol [158] Dimethyl formamide Optical sensor</t>
   </si>
   <si>
@@ -461,6 +455,9 @@
   </si>
   <si>
     <t>12–18 wt.%</t>
+  </si>
+  <si>
+    <t>polyacrylic acid-polypyrene methanol, PAA-PM</t>
   </si>
 </sst>
 </file>
@@ -873,11 +870,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FB3FA6-347F-463A-A59E-9A9DB89F6BA0}">
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
+      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,178 +1503,174 @@
         <v>18</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>19</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="D53" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="135" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="150" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="180" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="225" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="165" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="255" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="195" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="255" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
         <v>18</v>
       </c>
     </row>

--- a/candidatePolymers.xlsx
+++ b/candidatePolymers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3770C6C1-D87E-4955-BA86-7B3CA63A2404}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B312D5-91D4-4BF3-84B1-525B56B9A09A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="7845" windowWidth="28815" windowHeight="7770" xr2:uid="{C74DB7A0-B3A2-4579-87BB-9DD1A019994B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C74DB7A0-B3A2-4579-87BB-9DD1A019994B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="389">
   <si>
     <t>Polymer</t>
   </si>
@@ -358,9 +358,6 @@
     <t>10–15 wt.%</t>
   </si>
   <si>
-    <t>Polyethylene Terephtalate, PET</t>
-  </si>
-  <si>
     <t>Mw=10,000–20,000 g/mol</t>
   </si>
   <si>
@@ -556,9 +553,6 @@
     <t>12, 20 wt.% / 8, 16, 20 wt.%</t>
   </si>
   <si>
-    <t>Poly(vinylidene fluoride) , PVDF</t>
-  </si>
-  <si>
     <t>M=107,000</t>
   </si>
   <si>
@@ -568,9 +562,6 @@
     <t>Polyether imide, PEI</t>
   </si>
   <si>
-    <t>Polyethylene gricol, PEG</t>
-  </si>
-  <si>
     <t>M=10 K</t>
   </si>
   <si>
@@ -848,10 +839,6 @@
   </si>
   <si>
     <t>[-CO(CH2)4CONH(CH2)6NH-]n</t>
-  </si>
-  <si>
-    <t>A review on polymer nanofibers by electrospinning and their applications in nanocomposites
-https://www.sigmaaldrich.com/catalog/substance/nylon66262353213117211?lang=es&amp;region=MX</t>
   </si>
   <si>
     <t>id Number</t>
@@ -931,6 +918,10 @@
   </si>
   <si>
     <t>A review on polymer nanofibers by electrospinning and their applications in nanocomposites
+https://www.sigmaaldrich.com/catalog/product/avanti/880134p?lang=es&amp;region=MX</t>
+  </si>
+  <si>
+    <t>A review on polymer nanofibers by electrospinning and their applications in nanocomposites
 https://www.sigmaaldrich.com/catalog/product/aldrich/38534?lang=es&amp;region=MX
 https://www.sigmaaldrich.com/catalog/substance/polyethylenecovinylacetate123452493778811?lang=es&amp;region=MX</t>
   </si>
@@ -950,12 +941,21 @@
 https://www.sigmaaldrich.com/catalog/substance/polyethyleneoxide123452532268311?lang=es&amp;region=MX</t>
   </si>
   <si>
+    <t>&lt; too many Os &gt;</t>
+  </si>
+  <si>
     <t>&lt; too many Os &gt;
 /</t>
   </si>
   <si>
     <t xml:space="preserve">
 /</t>
+  </si>
+  <si>
+    <t>A review on polymer nanofibers by electrospinning and their applications in nanocomposites
+https://www.sigmaaldrich.com/catalog/product/roche/11179179001?lang=es&amp;region=MX
+https://www.researchgate.net/profile/Sachin_Navale5/post/How_can_I_convert_solid_polypyrrole_powder_into_liquid_form/attachment/59d64087c49f478072eaa531/AS%3A273788690731026%401442287718284/download/polymer_data_handbook.pdf
+http://www.softschools.com/formulas/chemistry/collagen_formula/482/</t>
   </si>
   <si>
     <t>A review on polymer nanofibers by electrospinning and their applications in nanocomposites
@@ -1007,6 +1007,267 @@
   </si>
   <si>
     <t>NA / [CH2CH(C6H5)]n</t>
+  </si>
+  <si>
+    <t>25067-59-8</t>
+  </si>
+  <si>
+    <t>average Mn 25,000-50,000</t>
+  </si>
+  <si>
+    <t>C14H11N</t>
+  </si>
+  <si>
+    <t>A review on polymer nanofibers by electrospinning and their applications in nanocomposites
+https://www.sigmaaldrich.com/Graphics/COfAInfo/SigmaSAPQM/SPEC/36/368350/368350-BULK_______ALDRICH__.pdf
+https://www.sigmaaldrich.com/catalog/substance/poly9vinylcarbazole123452506759811?lang=es&amp;region=MX</t>
+  </si>
+  <si>
+    <t>Polyethylene Terephthalate, PET</t>
+  </si>
+  <si>
+    <t>25038-59-9</t>
+  </si>
+  <si>
+    <t>(C10H8O4)n</t>
+  </si>
+  <si>
+    <t>A review on polymer nanofibers by electrospinning and their applications in nanocomposites
+https://www.sigmaaldrich.com/catalog/product/usp/1546900?lang=es&amp;region=MX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA / </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+/
+NA</t>
+  </si>
+  <si>
+    <t>9003-01-4 / NA</t>
+  </si>
+  <si>
+    <t>average Mv ~450,000 / NA</t>
+  </si>
+  <si>
+    <t>A review on polymer nanofibers by electrospinning and their applications in nanocomposites
+https://www.sigmaaldrich.com/catalog/product/aldrich/181285?lang=es&amp;region=MX&amp;cm_sp=Insite-_-prodRecCold_xviews-_-prodRecCold3-1</t>
+  </si>
+  <si>
+    <t>[CH2CH(C6H5)]n</t>
+  </si>
+  <si>
+    <t>A review on polymer nanofibers by electrospinning and their applications in nanocomposites
+https://www.sigmaaldrich.com/catalog/product/sial/81401?lang=es&amp;region=MX</t>
+  </si>
+  <si>
+    <t>880134P</t>
+  </si>
+  <si>
+    <t>63428-83-1</t>
+  </si>
+  <si>
+    <t>A review on polymer nanofibers by electrospinning and their applications in nanocomposites
+https://www.sigmaaldrich.com/catalog/product/sial/02395?lang=es&amp;region=MX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24979-70-2  </t>
+  </si>
+  <si>
+    <t>[CH2CH(C6H4OH)]n</t>
+  </si>
+  <si>
+    <t>average Mw ~25,000</t>
+  </si>
+  <si>
+    <t>A review on polymer nanofibers by electrospinning and their applications in nanocomposites
+https://www.sigmaaldrich.com/catalog/product/aldrich/436224?lang=es&amp;region=MX</t>
+  </si>
+  <si>
+    <t>9002-86-2</t>
+  </si>
+  <si>
+    <t>(CH2CHCl)n</t>
+  </si>
+  <si>
+    <t>A review on polymer nanofibers by electrospinning and their applications in nanocomposites
+https://www.sigmaaldrich.com/catalog/substance/polyvinylchloride12345900286211?lang=es&amp;region=MX</t>
+  </si>
+  <si>
+    <t>9004-35-7</t>
+  </si>
+  <si>
+    <t>A review on polymer nanofibers by electrospinning and their applications in nanocomposites
+https://www.sigmaaldrich.com/catalog/substance/celluloseacetate12345900435711?lang=es&amp;region=MX</t>
+  </si>
+  <si>
+    <t>9003-01-4 / NA / 81367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+/
+NA
+/</t>
+  </si>
+  <si>
+    <t>NA / NA / NA</t>
+  </si>
+  <si>
+    <t>average Mv ~450,000 / NA / NA</t>
+  </si>
+  <si>
+    <t>A review on polymer nanofibers by electrospinning and their applications in nanocomposites
+https://www.sigmaaldrich.com/catalog/product/aldrich/181285?lang=es&amp;region=MX&amp;cm_sp=Insite-_-prodRecCold_xviews-_-prodRecCold3-1
+https://www.sigmaaldrich.com/catalog/product/sial/81367?lang=es&amp;region=MX
+http://www.essentialchemicalindustry.org/polymers/polyurethane.html
+https://polymerdatabase.com/polymer%20classes/Polyurethane%20type.html</t>
+  </si>
+  <si>
+    <t>DUPLICATE</t>
+  </si>
+  <si>
+    <t>[-CH2CHOH-]n / SiO2</t>
+  </si>
+  <si>
+    <t>Mw 89,000-98,000, 99+% hydrolyzed / 60.08</t>
+  </si>
+  <si>
+    <t>9002-89-5 / 7631-86-9</t>
+  </si>
+  <si>
+    <t>A review on polymer nanofibers by electrospinning and their applications in nanocomposites
+https://www.sigmaaldrich.com/catalog/product/aldrich/341584?lang=es&amp;region=MX
+https://www.sigmaaldrich.com/catalog/substance/silica6008763186911?lang=es&amp;region=MX</t>
+  </si>
+  <si>
+    <t>(C3H5NO)n</t>
+  </si>
+  <si>
+    <t>9003-05-8</t>
+  </si>
+  <si>
+    <t>A review on polymer nanofibers by electrospinning and their applications in nanocomposites
+https://www.sigmaaldrich.com/catalog/substance/polyacrylamide12345900305811?lang=es&amp;region=MX</t>
+  </si>
+  <si>
+    <t>[C3H4O2]x[C2H2O2]y</t>
+  </si>
+  <si>
+    <t>mol wt 30,000-60,000</t>
+  </si>
+  <si>
+    <t>P2191</t>
+  </si>
+  <si>
+    <t>A review on polymer nanofibers by electrospinning and their applications in nanocomposites
+https://www.sigmaaldrich.com/catalog/product/sigma/p2191?lang=es&amp;region=MX</t>
+  </si>
+  <si>
+    <t>2.5±3.1 g mol^(-1)x10^5</t>
+  </si>
+  <si>
+    <t>(C6H10O2)n</t>
+  </si>
+  <si>
+    <t>440752</t>
+  </si>
+  <si>
+    <t>average Mw ~14,000</t>
+  </si>
+  <si>
+    <t>A review on polymer nanofibers by electrospinning and their applications in nanocomposites
+https://www.sigmaaldrich.com/catalog/product/aldrich/440752?lang=es&amp;region=MX</t>
+  </si>
+  <si>
+    <t>25249-16-5</t>
+  </si>
+  <si>
+    <t>(C6H10O3)n</t>
+  </si>
+  <si>
+    <t>A review on polymer nanofibers by electrospinning and their applications in nanocomposites
+https://www.sigmaaldrich.com/catalog/product/sigma/p3932?lang=es&amp;region=MX</t>
+  </si>
+  <si>
+    <t>Poly(vinylidene fluoride), PVDF</t>
+  </si>
+  <si>
+    <t>24937-79-9</t>
+  </si>
+  <si>
+    <t>(CH2CF2)n</t>
+  </si>
+  <si>
+    <t>average Mw ~180,000</t>
+  </si>
+  <si>
+    <t>61128-46-9</t>
+  </si>
+  <si>
+    <t>(C39H30N2O6)n</t>
+  </si>
+  <si>
+    <t>A review on polymer nanofibers by electrospinning and their applications in nanocomposites
+https://www.sigmaaldrich.com/catalog/substance/polyetherimide123456112846911?lang=es&amp;region=MX</t>
+  </si>
+  <si>
+    <t>Polyethylene glycol, PEG</t>
+  </si>
+  <si>
+    <t>H(OCH2CH2)nOH</t>
+  </si>
+  <si>
+    <t>average Mn 400</t>
+  </si>
+  <si>
+    <t>GF12649473</t>
+  </si>
+  <si>
+    <t>&lt; AM341025 &gt;</t>
+  </si>
+  <si>
+    <t>A review on polymer nanofibers by electrospinning and their applications in nanocomposites
+https://www.sigmaaldrich.com/catalog/search?term=AM341025&amp;interface=All&amp;N=0&amp;mode=match%20partialmax&amp;lang=es&amp;region=MX&amp;focus=product</t>
+  </si>
+  <si>
+    <t>A review on polymer nanofibers by electrospinning and their applications in nanocomposites
+https://www.sigmaaldrich.com/catalog/product/aldrich/202398?lang=es&amp;region=MX</t>
+  </si>
+  <si>
+    <t>Mn x10^3 97</t>
+  </si>
+  <si>
+    <t>P4270-FES</t>
+  </si>
+  <si>
+    <t>A review on polymer nanofibers by electrospinning and their applications in nanocomposites
+https://www.polymersource.ca/index.php?route=product/category&amp;path=2_2183_14_88_2076&amp;subtract=1&amp;categorystart=A-1.2.8.7&amp;serachproduct=</t>
+  </si>
+  <si>
+    <t>A review on polymer nanofibers by electrospinning and their applications in nanocomposites
+https://www.sigmaaldrich.com/catalog/substance/nylon66262353213117211?lang=es&amp;region=MX
+https://www.sigmaaldrich.com/catalog/product/aldrich/gf69322888?lang=es&amp;region=MX</t>
+  </si>
+  <si>
+    <t>32131-17-2 / 1318-93-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+/
+NA</t>
+  </si>
+  <si>
+    <t>[-CO(CH2)4CONH(CH2)6NH-]n / (Na,Ca)0.33(Al,Mg)2(Si4O10)(OH)2 · nH2O</t>
+  </si>
+  <si>
+    <t>262.35 / NA</t>
+  </si>
+  <si>
+    <t>A review on polymer nanofibers by electrospinning and their applications in nanocomposites
+https://www.sigmaaldrich.com/catalog/substance/nylon66262353213117211?lang=es&amp;region=MX
+https://www.sigmaaldrich.com/catalog/product/aldrich/gf69322888?lang=es&amp;region=MX
+https://www.mindat.org/min-2821.html
+https://www.sigmaaldrich.com/catalog/product/aldrich/69866?lang=es&amp;region=MX</t>
   </si>
 </sst>
 </file>
@@ -1088,36 +1349,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1240,8 +1504,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4274345" y="1345406"/>
-          <a:ext cx="3607594" cy="908416"/>
+          <a:off x="4202907" y="1345406"/>
+          <a:ext cx="3607593" cy="908416"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2053,6 +2317,1326 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>762000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16" descr="https://www.sigmaaldrich.com/content/dam/sigma-aldrich/structure4/018/mfcd00134336.eps/_jcr_content/renditions/mfcd00134336-large.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C6C7143-778A-4EA1-9625-F4B3647E2351}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4202906" y="24717375"/>
+          <a:ext cx="771525" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3869530</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1571134</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17" descr="https://www.sigmaaldrich.com/content/dam/sigma-aldrich/structure0/036/mfcd00084422.eps/_jcr_content/renditions/mfcd00084422-large.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7E42E75-A9BE-4F62-B562-AFB074A62456}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4202905" y="25550813"/>
+          <a:ext cx="1571135" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>928689</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>762000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18" descr="https://www.sigmaaldrich.com/content/dam/sigma-aldrich/structure2/125/mfcd00084394.eps/_jcr_content/renditions/mfcd00084394-large.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{036E4ADC-7FED-4F8E-B2A0-9E8EBC3633E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4202906" y="26777155"/>
+          <a:ext cx="928689" cy="762001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>541337</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>762000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19" descr="https://www.sigmaaldrich.com/content/dam/sigma-aldrich/structure9/046/mfcd00084450.eps/_jcr_content/renditions/mfcd00084450-large.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EDF4069-E84B-44D0-94DC-FCEB210BF098}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4202906" y="27920156"/>
+          <a:ext cx="541337" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>923925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20" descr="Image result for quimica grupos asoticos">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D8AE998-61A5-4AD3-A223-58687C662C6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="39452550" y="190500"/>
+          <a:ext cx="4171950" cy="3228975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>1792523</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21" descr="https://www.sigmaaldrich.com/content/dam/sigma-aldrich/structure4/009/t____880134p.eps/_jcr_content/renditions/t____880134p-large.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBDE7877-DB81-45E5-A9E5-DCC5627CD057}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4202906" y="30265688"/>
+          <a:ext cx="3607594" cy="1792523"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2498361</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22" descr="https://www.sigmaaldrich.com/content/dam/sigma-aldrich/structure9/196/mfcd00133998.eps/_jcr_content/renditions/mfcd00133998-large.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55C1DE5C-CB51-4F40-AAFB-EBB8626146E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4202906" y="32123063"/>
+          <a:ext cx="2498361" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>952501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23" descr="https://www.sigmaaldrich.com/content/dam/sigma-aldrich/structure1/192/mfcd00081839.eps/_jcr_content/renditions/mfcd00081839-large.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFE83CFD-5FC3-40E7-925C-FFA5EF287430}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4202906" y="33313689"/>
+          <a:ext cx="1524000" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>1143000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24" descr="https://www.sigmaaldrich.com/content/dam/sigma-aldrich/structure7/055/mfcd00147948.eps/_jcr_content/renditions/mfcd00147948-large.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F006940E-3FB7-48F9-B602-901514A34BE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4202906" y="34123313"/>
+          <a:ext cx="619125" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>938113</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25" descr="https://www.sigmaaldrich.com/content/dam/sigma-aldrich/structure8/047/mfcd00084459.eps/_jcr_content/renditions/mfcd00084459-large.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E114FF4F-5B53-4FBB-B60A-57CC57217B54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4202906" y="35349656"/>
+          <a:ext cx="938113" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="928689" cy="762001"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26" descr="https://www.sigmaaldrich.com/content/dam/sigma-aldrich/structure2/125/mfcd00084394.eps/_jcr_content/renditions/mfcd00084394-large.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{661051CE-465A-4BC2-B79D-E953B8CB71F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4202906" y="36754594"/>
+          <a:ext cx="928689" cy="762001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>1341866</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3607593" cy="908416"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27" descr="http://www.essentialchemicalindustry.org/images/stories/670_Polyurethane/Polyurethanes_14.JPG">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DABB66A7-F4D4-4638-8537-035E4BCF81A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="42513"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4202907" y="38096460"/>
+          <a:ext cx="3607593" cy="908416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="891540" cy="762000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28" descr="Poly(vinyl alcohol) Mw 89,000-98,000, 99+% hydrolyzed">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BA2F884-1BD7-454E-B371-878A6413BCEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4202906" y="7489031"/>
+          <a:ext cx="891540" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>831851</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>762000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29" descr="https://www.sigmaaldrich.com/content/dam/sigma-aldrich/structure0/125/mfcd00084392.eps/_jcr_content/renditions/mfcd00084392-large.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A90A98-9BB4-4173-A7EF-3966C6011D2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4202907" y="40195500"/>
+          <a:ext cx="831850" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1756772</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>952501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30" descr="https://www.sigmaaldrich.com/content/dam/sigma-aldrich/structure8/051/a_____719870.eps/_jcr_content/renditions/a_____719870-large.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F28735E6-BC96-47CA-95AD-BDE549B01FE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4202906" y="41064657"/>
+          <a:ext cx="1756772" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1434353</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>571501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32" descr="https://www.sigmaaldrich.com/content/dam/sigma-aldrich/structure5/125/a_____704105.eps/_jcr_content/renditions/a_____704105-large.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4035BE16-65D0-49C6-9856-D60BD90C60C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4202906" y="43207782"/>
+          <a:ext cx="1434353" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1147482</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>762001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33" descr="https://www.sigmaaldrich.com/content/dam/sigma-aldrich/structure8/117/mfcd00084374.eps/_jcr_content/renditions/mfcd00084374-large.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40C9DF7E-24C3-472E-88AC-65AA31C58F69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4202906" y="43850720"/>
+          <a:ext cx="1147482" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>670811</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>761999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34" descr="https://www.sigmaaldrich.com/content/dam/sigma-aldrich/structure3/054/mfcd00084470.eps/_jcr_content/renditions/mfcd00084470-large.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95CA2C74-888B-4AB3-B106-11F1815C01DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4202906" y="44684156"/>
+          <a:ext cx="670811" cy="761999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>890625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35" descr="https://www.sigmaaldrich.com/content/dam/sigma-aldrich/structure8/113/mfcd00217701.eps/_jcr_content/renditions/mfcd00217701-large.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D473C30-6641-4135-980E-15B1B31E06C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4202906" y="45529500"/>
+          <a:ext cx="3607594" cy="890625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>571501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36" descr="https://www.sigmaaldrich.com/content/dam/sigma-aldrich/structure1/192/mfcd00081839.eps/_jcr_content/renditions/mfcd00081839-large.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C59A847-DB19-4920-9280-43D498E784F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4202906" y="46493907"/>
+          <a:ext cx="1143000" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1511300</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>1333500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37" descr="https://www.polymersource.ca/image/cache/data/category_structure/B-1-09-09_FES-680x600.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6108A368-3434-4579-8774-FABBFC156CDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4202906" y="47708344"/>
+          <a:ext cx="1511300" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3607594" cy="1088340"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38" descr="https://www.sigmaaldrich.com/content/dam/sigma-aldrich/structure0/197/mfcd00133999.eps/_jcr_content/renditions/mfcd00133999-large.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3347A0DA-7DD3-4DF1-88FB-064BA1853728}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4202906" y="190500"/>
+          <a:ext cx="3607594" cy="1088340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2353,1945 +3937,2756 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FB3FA6-347F-463A-A59E-9A9DB89F6BA0}">
-  <dimension ref="A1:L108"/>
+  <dimension ref="A1:M108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="62" style="5" customWidth="1"/>
-    <col min="9" max="9" width="45" style="5" customWidth="1"/>
-    <col min="10" max="10" width="54.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="73.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="118" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="62" style="2" customWidth="1"/>
+    <col min="9" max="9" width="45" style="2" customWidth="1"/>
+    <col min="10" max="10" width="54.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="73.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="118" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2" s="3">
+        <v>262.35000000000002</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="M2"/>
+    </row>
+    <row r="3" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="3">
+        <v>81367</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>6</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>7</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>9</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>10</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>11</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K33" s="3"/>
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K37" s="3"/>
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="8"/>
+    </row>
+    <row r="41" spans="1:12" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>12</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K41" s="3"/>
+      <c r="L41" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K42" s="3"/>
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="1:12" ht="189" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>13</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K43" s="3"/>
+      <c r="L43" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K44" s="3"/>
+      <c r="L44" s="8"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K45" s="3"/>
+      <c r="L45" s="8"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="8"/>
+    </row>
+    <row r="47" spans="1:12" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>14</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K47" s="3"/>
+      <c r="L47" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K48" s="3"/>
+      <c r="L48" s="8"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>15</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K49" s="3"/>
+      <c r="L49" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>16</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K50" s="3"/>
+      <c r="L50" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>17</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="8"/>
+    </row>
+    <row r="53" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>18</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K53" s="3"/>
+      <c r="L53" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>19</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="3">
+        <v>81401</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K55" s="3"/>
+      <c r="L55" s="8"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="8"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="8"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K58" s="3"/>
+      <c r="L58" s="8"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K59" s="3"/>
+      <c r="L59" s="8"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K60" s="3"/>
+      <c r="L60" s="8"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K61" s="3"/>
+      <c r="L61" s="8"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K62" s="3"/>
+      <c r="L62" s="8"/>
+    </row>
+    <row r="63" spans="1:12" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>20</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>21</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K64" s="3"/>
+      <c r="L64" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>22</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K65" s="3"/>
+      <c r="L65" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>23</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K66" s="3"/>
+      <c r="L66" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>24</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>25</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K68" s="3"/>
+      <c r="L68" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>26</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K69" s="3"/>
+      <c r="L69" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>27</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>28</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71"/>
+      <c r="D71" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>29</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72"/>
+      <c r="D72" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K72" s="3"/>
+      <c r="L72" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>30</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K73" s="3"/>
+      <c r="L73" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>31</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C74"/>
+      <c r="D74" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>32</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C75"/>
+      <c r="D75" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K75" s="3"/>
+      <c r="L75" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>33</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C76"/>
+      <c r="D76" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K76" s="3"/>
+      <c r="L76" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>34</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C77"/>
+      <c r="D77" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K77" s="3"/>
+      <c r="L77" s="8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>35</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C78"/>
+      <c r="D78" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>36</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K79" s="3"/>
+      <c r="L79" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>37</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C80"/>
+      <c r="D80" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>38</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>39</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K82" s="3"/>
+      <c r="L82" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>40</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K83" s="3"/>
+      <c r="L83" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>41</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K84" s="3"/>
+      <c r="L84" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>42</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>43</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>44</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="K87" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="L87" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>45</v>
+      </c>
+      <c r="B88" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="F2" s="5">
-        <v>262.35000000000002</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="5">
-        <v>81367</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-      <c r="J6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>5</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14" s="7"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L15" s="7"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L16" s="7"/>
-    </row>
-    <row r="17" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>6</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="5" t="s">
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="K88" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L88" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
         <v>46</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="5" t="s">
+      <c r="B89" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="L89" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
         <v>47</v>
       </c>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G19" s="5" t="s">
+      <c r="B90" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="L90" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
         <v>48</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="B91" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="K91" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="L91" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
         <v>49</v>
       </c>
-      <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>7</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="G20" s="5" t="s">
+      <c r="B92" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="K92" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="L92" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
         <v>50</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" s="5" t="s">
+      <c r="B93" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="K93" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="L93" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
         <v>51</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="5" t="s">
+      <c r="B94" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="K94" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="L94" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
         <v>52</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="B95" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="K95" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="L95" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
         <v>53</v>
       </c>
-      <c r="L21" s="7"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G22" s="5" t="s">
+      <c r="B96" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="K96" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="L96" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
         <v>54</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="5" t="s">
+      <c r="B97" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="K97" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="L97" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
         <v>55</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="B98" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="K98" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="L98" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
         <v>56</v>
       </c>
-      <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G23" s="5" t="s">
+      <c r="B99" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K99" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="L99" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
         <v>57</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H24" s="5" t="s">
+      <c r="B100" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="K100" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="L100" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
         <v>58</v>
       </c>
-      <c r="L24" s="7"/>
-    </row>
-    <row r="25" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>8</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>9</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>10</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>11</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G29" s="5" t="s">
+      <c r="B101" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="K101" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="L101" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
         <v>59</v>
       </c>
-      <c r="H29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L29" s="7"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L30" s="7"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G31" s="5" t="s">
+      <c r="B102" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="K102" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="L102" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
         <v>60</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="B103" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="K103" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="L103" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
         <v>61</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="B104" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K104" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="L104" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
         <v>62</v>
       </c>
-      <c r="L31" s="7"/>
-    </row>
-    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="H32" s="5" t="s">
+      <c r="B105" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="K105" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="L105" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
         <v>63</v>
       </c>
-      <c r="L32" s="7"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G33" s="5" t="s">
+      <c r="B106" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K106" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="L106" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
         <v>64</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="B107" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="K107" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="L107" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
         <v>65</v>
       </c>
-      <c r="I33" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L33" s="7"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G34" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="L34" s="7"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G35" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L35" s="7"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G36" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L36" s="7"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H37" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L37" s="7"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H38" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L38" s="7"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G39" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L39" s="7"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G40" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L40" s="7"/>
-    </row>
-    <row r="41" spans="1:12" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>12</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G42" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="L42" s="7"/>
-    </row>
-    <row r="43" spans="1:12" ht="189" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
-        <v>13</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H44" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L44" s="7"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G45" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L45" s="7"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G46" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="L46" s="7"/>
-    </row>
-    <row r="47" spans="1:12" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
-        <v>14</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C48" s="6"/>
-      <c r="H48" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L48" s="7"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
-        <v>15</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
-        <v>16</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
-        <v>17</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="L51" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H52" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="L52" s="7"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
-        <v>18</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
-        <v>19</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G55" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="I55" s="10">
-        <v>0.08</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="L55" s="7"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H56" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L56" s="7"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H57" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="L57" s="7"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G58" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="L58" s="7"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G59" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="L59" s="7"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G60" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J60" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="L60" s="7"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G61" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J61" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="L61" s="7"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G62" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J62" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="L62" s="7"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
-        <v>20</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="L63" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
-        <v>21</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="J64" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L64" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
-        <v>22</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="J65" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="L65" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
-        <v>23</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="J66" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="L66" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
-        <v>24</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="L67" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
-        <v>25</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="J68" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="L68" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="5">
-        <v>26</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="L69" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
-        <v>27</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L70" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
-        <v>28</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L71" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
-        <v>29</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="J72" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L72" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
-        <v>30</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="J73" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L73" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="5">
-        <v>31</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="L74" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="5">
-        <v>32</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="J75" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="L75" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="5">
-        <v>33</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="H76" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J76" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="L76" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="5">
-        <v>34</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J77" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="L77" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="5">
-        <v>35</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L78" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="5">
-        <v>36</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H79" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I79" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J79" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="L79" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="5">
-        <v>37</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="H80" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="L80" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="5">
-        <v>38</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="H81" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="I81" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L81" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="5">
-        <v>39</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="I82" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="J82" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="L82" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="5">
-        <v>40</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="J83" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="L83" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="5">
-        <v>41</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="J84" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="L84" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="5">
-        <v>42</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="L85" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="5">
-        <v>43</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="L86" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="5">
-        <v>44</v>
-      </c>
-      <c r="B87" s="5" t="s">
+      <c r="B108" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="K108" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="L108" s="8" t="s">
         <v>199</v>
-      </c>
-      <c r="J87" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="K87" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L87" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="5">
-        <v>45</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="J88" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K88" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L88" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="5">
-        <v>46</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="J89" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K89" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="L89" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="5">
-        <v>47</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="J90" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="K90" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="L90" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="5">
-        <v>48</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="J91" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K91" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L91" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="5">
-        <v>49</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="J92" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K92" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L92" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="5">
-        <v>50</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="J93" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="K93" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L93" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="5">
-        <v>51</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="J94" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K94" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L94" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="5">
-        <v>52</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="J95" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="K95" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L95" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="5">
-        <v>53</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="J96" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="K96" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L96" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="5">
-        <v>54</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="J97" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="K97" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L97" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="5">
-        <v>55</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="J98" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="K98" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L98" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="5">
-        <v>56</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="J99" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="K99" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L99" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="5">
-        <v>57</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="J100" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="K100" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L100" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A101" s="5">
-        <v>58</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="J101" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="K101" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L101" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="5">
-        <v>59</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="J102" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="K102" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L102" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="5">
-        <v>60</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="J103" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="K103" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L103" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="5">
-        <v>61</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="J104" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="K104" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L104" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="5">
-        <v>62</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="J105" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="K105" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L105" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="5">
-        <v>63</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="J106" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="K106" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L106" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="5">
-        <v>64</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="J107" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="K107" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L107" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="5">
-        <v>65</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="J108" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="K108" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L108" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/candidatePolymers.xlsx
+++ b/candidatePolymers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B312D5-91D4-4BF3-84B1-525B56B9A09A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77A1757-825E-4F26-894A-E648C734BCD3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C74DB7A0-B3A2-4579-87BB-9DD1A019994B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$112</definedName>
     <definedName name="bTBLFN1A" localSheetId="0">Sheet1!$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="448">
   <si>
     <t>Polymer</t>
   </si>
@@ -589,9 +589,6 @@
     <t>Hexa-fluoro-isopropanol (HFIP), HFIP/dimethylformamide: 95/5 (wt%)</t>
   </si>
   <si>
-    <t>poly(ethylene-co-vinyl alcohol)</t>
-  </si>
-  <si>
     <t>Vinyl alcohol repeat unit: 56–71 mol%</t>
   </si>
   <si>
@@ -622,9 +619,6 @@
     <t>Polyvinyl pyrrolidone, PVP</t>
   </si>
   <si>
-    <t>Polymetha-phenylene isophthalamide</t>
-  </si>
-  <si>
     <t>Poly(glycolide) (PGA)</t>
   </si>
   <si>
@@ -716,9 +710,6 @@
   </si>
   <si>
     <t>SEM,TEM,mechanical Evaluation</t>
-  </si>
-  <si>
-    <t>Poly (vinyl alcohal)/cellulose acetate (PVA/CA)</t>
   </si>
   <si>
     <t>Biomaterials</t>
@@ -1269,12 +1260,214 @@
 https://www.mindat.org/min-2821.html
 https://www.sigmaaldrich.com/catalog/product/aldrich/69866?lang=es&amp;region=MX</t>
   </si>
+  <si>
+    <t>25067-34-9</t>
+  </si>
+  <si>
+    <t>(CH2CH2)x[CH2CH(OH)]y</t>
+  </si>
+  <si>
+    <t>Poly(vinyl alcohol-co-ethylene)</t>
+  </si>
+  <si>
+    <t>A review on polymer nanofibers by electrospinning and their applications in nanocomposites
+https://www.sigmaaldrich.com/catalog/product/aldrich/414093?lang=es&amp;region=MX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25014-41-9 / 2188-41-9  </t>
+  </si>
+  <si>
+    <t>(C3H3N)n / TiO2</t>
+  </si>
+  <si>
+    <t>average Mw 150,000 (Typical) / NA</t>
+  </si>
+  <si>
+    <t>A review on polymer nanofibers by electrospinning and their applications in nanocomposites
+https://www.sigmaaldrich.com/catalog/substance/polyacrylonitrile123452501441911?lang=es&amp;region=MX
+https://www.sigmaaldrich.com/catalog/product/aldrich/791326?lang=es&amp;region=MX</t>
+  </si>
+  <si>
+    <t>9003-39-8</t>
+  </si>
+  <si>
+    <t>(C6H9NO)n</t>
+  </si>
+  <si>
+    <t>average mol wt 40,000</t>
+  </si>
+  <si>
+    <t>A review on polymer nanofibers by electrospinning and their applications in nanocomposites
+https://www.sigmaaldrich.com/catalog/product/sial/pvp40?lang=es&amp;region=MX</t>
+  </si>
+  <si>
+    <t>25765-47-3</t>
+  </si>
+  <si>
+    <t>(C14H14N2O2)n</t>
+  </si>
+  <si>
+    <t>Poly phenylene isophthalamide</t>
+  </si>
+  <si>
+    <t>A review on polymer nanofibers by electrospinning and their applications in nanocomposites
+https://www.sigmaaldrich.com/catalog/product/aldrich/446521?lang=es&amp;region=MX
+https://www.sigmaaldrich.com/catalog/product/aldrich/431184?lang=es&amp;region=MX&amp;cm_sp=Insite-_-prodRecCold_xviews-_-prodRecCold3-1</t>
+  </si>
+  <si>
+    <t>26124-68-5</t>
+  </si>
+  <si>
+    <t>(C2H4O3)n</t>
+  </si>
+  <si>
+    <t>Electrospinning: A fascinating fiber fabrication technique
+https://www.sigmaaldrich.com/catalog/product/aldrich/457620?lang=es&amp;region=MX</t>
+  </si>
+  <si>
+    <t>C6H7O6((((C3H4O2)x(C2H2O2)y)m)H)5</t>
+  </si>
+  <si>
+    <t>average Mn 15,000</t>
+  </si>
+  <si>
+    <t>764868</t>
+  </si>
+  <si>
+    <t>Electrospinning: A fascinating fiber fabrication technique
+https://www.sigmaaldrich.com/catalog/product/aldrich/764868?lang=es&amp;region=MX</t>
+  </si>
+  <si>
+    <t>CH3(CH2)15O(C6H8O4)nH</t>
+  </si>
+  <si>
+    <t>average Mn 40,000</t>
+  </si>
+  <si>
+    <t>94829</t>
+  </si>
+  <si>
+    <t>Poly(vinyl alcohol-co-ethylene)
+SAME?</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>DUPLICATE?</t>
+  </si>
+  <si>
+    <t>Electrospinning: A fascinating fiber fabrication technique
+http://www.jsr.co.jp/jsr_e/pd/tpe_rb.shtml
+http://www.jsr.co.jp/jsr_e/pdf/pd/tpe/jsr-rb02.pdf</t>
+  </si>
+  <si>
+    <t>Poly (vinyl alcohal) / cellulose acetate (PVA/CA)</t>
+  </si>
+  <si>
+    <t>9002-89-5</t>
+  </si>
+  <si>
+    <t>Electrospinning: A fascinating fiber fabrication technique
+https://www.sigmaaldrich.com/catalog/substance/polyvinylalcohol12345900289511?lang=es&amp;region=MX</t>
+  </si>
+  <si>
+    <t>9012-76-4</t>
+  </si>
+  <si>
+    <t>Electrospinning: A fascinating fiber fabrication technique
+https://www.sigmaaldrich.com/catalog/substance/chitosan12345901276411?lang=es&amp;region=MX</t>
+  </si>
+  <si>
+    <t>(C40H59N11O13)n</t>
+  </si>
+  <si>
+    <t>900496</t>
+  </si>
+  <si>
+    <t>Electrospinning: A fascinating fiber fabrication technique
+https://www.sigmaaldrich.com/catalog/substance/gelatinmethacryloyl1234598765?lang=es&amp;region=MX</t>
+  </si>
+  <si>
+    <t>9067-32-7</t>
+  </si>
+  <si>
+    <t>Electrospinning: A fascinating fiber fabrication technique
+https://www.sigmaaldrich.com/catalog/substance/hyaluronicacidsodiumsaltfromstreptococcusequi12345906732711?lang=es&amp;region=MX</t>
+  </si>
+  <si>
+    <t>51.1</t>
+  </si>
+  <si>
+    <t>51.2</t>
+  </si>
+  <si>
+    <t>Poly(styrene-co-butadiene)</t>
+  </si>
+  <si>
+    <t>[CH2CH(C6H5)]x(CH2CH=CHCH2)y</t>
+  </si>
+  <si>
+    <t>9003-55-8</t>
+  </si>
+  <si>
+    <t>Poly(styrene-co-α-methylstyrene)</t>
+  </si>
+  <si>
+    <t>[CH2CH(C6H5)]x[CH2C(CH3)(C6H5)]y</t>
+  </si>
+  <si>
+    <t>9011-11-4</t>
+  </si>
+  <si>
+    <t>https://www.sigmaaldrich.com/catalog/product/aldrich/457205?lang=es&amp;region=MX</t>
+  </si>
+  <si>
+    <t>51.3</t>
+  </si>
+  <si>
+    <t>51.4</t>
+  </si>
+  <si>
+    <t>Polybutadiene</t>
+  </si>
+  <si>
+    <t>9003-17-2</t>
+  </si>
+  <si>
+    <t>(CH2CH=CHCH2)n</t>
+  </si>
+  <si>
+    <t>https://www.sigmaaldrich.com/catalog/substance/polybutadiene12345900317211?lang=es&amp;region=MX</t>
+  </si>
+  <si>
+    <t>Polybutadiene, phenyl terminated</t>
+  </si>
+  <si>
+    <t>605258</t>
+  </si>
+  <si>
+    <t>average Mn ~1,800</t>
+  </si>
+  <si>
+    <t>https://www.sigmaaldrich.com/catalog/product/aldrich/200433?lang=es&amp;region=MX</t>
+  </si>
+  <si>
+    <t>average Mw ~140,000</t>
+  </si>
+  <si>
+    <t>https://www.sigmaaldrich.com/catalog/substance/polystyrenecobutadiene12345900355811?lang=es&amp;region=MX
+https://www.sigmaaldrich.com/catalog/product/aldrich/182877?lang=es&amp;region=MX</t>
+  </si>
+  <si>
+    <t>styrene 30 wt. %, average Mw ~140,000 by GPC, contains &lt;0.5 wt. % antioxidant</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1321,19 +1514,73 @@
       <family val="3"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1345,11 +1592,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1369,7 +1619,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1381,12 +1631,33 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2450,7 +2721,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>928689</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>762000</xdr:rowOff>
+      <xdr:rowOff>762001</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2569,10 +2840,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>192881</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>923925</xdr:rowOff>
+      <xdr:rowOff>1114425</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3637,6 +3908,777 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3869530</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1563076</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>762000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39" descr="https://www.sigmaaldrich.com/content/dam/sigma-aldrich/structure8/131/mfcd00197931.eps/_jcr_content/renditions/mfcd00197931-large.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63757710-8BD7-4521-B989-06C45ECF0C7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4202905" y="50649188"/>
+          <a:ext cx="1563077" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="929640" cy="762000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40" descr="Image of Polyacrylonitrile">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35C00D25-5D42-4502-8B92-FEA14C1D4589}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4202906" y="5941219"/>
+          <a:ext cx="929640" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1434353</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>571501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41" descr="https://www.sigmaaldrich.com/content/dam/sigma-aldrich/structure5/125/a_____704105.eps/_jcr_content/renditions/a_____704105-large.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{594867EE-44D6-482D-805D-52BDE9F788A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4202906" y="52625626"/>
+          <a:ext cx="1434353" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>951905</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>1143000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42" descr="https://www.sigmaaldrich.com/content/dam/sigma-aldrich/structure9/142/mfcd00149016.eps/_jcr_content/renditions/mfcd00149016-large.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FC7DEFE-07CF-44CB-AC5B-AF4ADFB63DD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4202906" y="53232844"/>
+          <a:ext cx="951905" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1966452</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>762000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43" descr="https://www.sigmaaldrich.com/content/dam/sigma-aldrich/structure1/171/mfcd00241435.eps/_jcr_content/renditions/mfcd00241435-large.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F912F1F-85D6-48E7-905F-8F48D96F42B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4202906" y="54459188"/>
+          <a:ext cx="1966452" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1587500</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44" descr="https://www.sigmaaldrich.com/content/dam/sigma-aldrich/structure1/077/mfcd00148011.eps/_jcr_content/renditions/mfcd00148011-large.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC949CAB-8004-4725-B1D1-EB2B3431EB7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4202906" y="55292625"/>
+          <a:ext cx="1587500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1055889</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>761999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45" descr="https://www.sigmaaldrich.com/content/dam/sigma-aldrich/structure5/064/a______94829.eps/_jcr_content/renditions/a______94829-large.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B747FF-665B-4110-9B21-6204374550E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4202906" y="56876156"/>
+          <a:ext cx="1055889" cy="761999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>2583107</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1349C7AA-3EB6-40B6-9F3B-580214D96FF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4202906" y="58662094"/>
+          <a:ext cx="3607594" cy="2583107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666869</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>571500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47" descr="https://www.sigmaaldrich.com/content/dam/sigma-aldrich/structure6/124/mfcd00081922.eps/_jcr_content/renditions/mfcd00081922-large.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D33098-857F-495D-8BF6-4D591B7B397D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4202906" y="62055375"/>
+          <a:ext cx="666869" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2633382</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>1119187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48" descr="https://www.sigmaaldrich.com/content/dam/sigma-aldrich/structure7/199/mfcd00134010.eps/_jcr_content/renditions/mfcd00134010-large.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B771E077-FD98-437E-8EFC-5B1B77F6FEDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4286250" y="61293375"/>
+          <a:ext cx="2633382" cy="1119187"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1262063</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>1358327</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49" descr="https://www.sigmaaldrich.com/content/dam/sigma-aldrich/structure4/179/mfcd00284291.eps/_jcr_content/renditions/mfcd00284291-large.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{347017F1-3CB4-4265-A3A8-06541AB3A77E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4286251" y="62888813"/>
+          <a:ext cx="1262062" cy="1358327"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1008157</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>511968</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50" descr="https://www.sigmaaldrich.com/content/dam/sigma-aldrich/structure6/125/mfcd00084398.eps/_jcr_content/renditions/mfcd00084398-large.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09CE887A-93E2-45F6-B45A-C50648D00A55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4286251" y="63888938"/>
+          <a:ext cx="1008156" cy="511968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2571750</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>1052810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51" descr="https://www.sigmaaldrich.com/content/dam/sigma-aldrich/structure4/028/mfcd00084400.eps/_jcr_content/renditions/mfcd00084400-large.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3E6C519-EA86-48F8-999D-C0D6366AEA29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4286250" y="64460438"/>
+          <a:ext cx="2571750" cy="1052810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3937,28 +4979,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FB3FA6-347F-463A-A59E-9A9DB89F6BA0}">
-  <dimension ref="A1:M108"/>
+  <dimension ref="A1:M112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="62" style="2" customWidth="1"/>
-    <col min="9" max="9" width="45" style="2" customWidth="1"/>
-    <col min="10" max="10" width="54.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="73.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="62" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="45" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="54.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="73.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="118" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -3970,16 +5012,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>2</v>
@@ -3994,78 +5036,78 @@
         <v>6</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="F2" s="11">
         <v>262.35000000000002</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="M2"/>
-    </row>
-    <row r="3" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="K2" s="11"/>
+      <c r="L2" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="M2" s="12"/>
+    </row>
+    <row r="3" spans="1:13" s="15" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="3">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14">
         <v>81367</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="E3" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -4085,39 +5127,39 @@
       <c r="K4" s="3"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:13" s="17" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="9" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="16"/>
+      <c r="L5" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="9"/>
       <c r="C6" s="8"/>
@@ -4133,39 +5175,39 @@
       <c r="K6" s="3"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:13" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:13" s="15" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
+      <c r="B7" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="14"/>
+      <c r="L7" s="14" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -4185,7 +5227,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -4203,7 +5245,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4223,7 +5265,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4243,37 +5285,37 @@
       <c r="K11" s="3"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="12" spans="1:13" s="17" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
         <v>5</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4289,7 +5331,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4307,7 +5349,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4323,7 +5365,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4341,39 +5383,39 @@
       <c r="K16" s="3"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    <row r="17" spans="1:12" s="13" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
         <v>6</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="8" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4391,7 +5433,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4409,39 +5451,39 @@
       <c r="K19" s="3"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+    <row r="20" spans="1:12" s="15" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
         <v>7</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3" t="s">
+      <c r="I20" s="14"/>
+      <c r="J20" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="8" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K20" s="14"/>
+      <c r="L20" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4461,7 +5503,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4483,7 +5525,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4503,7 +5545,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4519,49 +5561,57 @@
       <c r="K24" s="3"/>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+    <row r="25" spans="1:12" s="13" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
         <v>8</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3" t="s">
+      <c r="H25" s="11"/>
+      <c r="I25" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="8" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="K25" s="11"/>
+      <c r="L25" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>9</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>343</v>
+      </c>
       <c r="G26" s="3" t="s">
         <v>23</v>
       </c>
@@ -4574,74 +5624,74 @@
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="15" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>10</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="15" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>11</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>10</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="8" t="s">
+      <c r="F28" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>11</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="8" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4661,7 +5711,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="8"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4681,7 +5731,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4701,7 +5751,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4717,7 +5767,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="8"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4739,7 +5789,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="8"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4759,7 +5809,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="8"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4777,7 +5827,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="8"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4795,7 +5845,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="8"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4815,7 +5865,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="8"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4831,7 +5881,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4851,7 +5901,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="8"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4871,43 +5921,43 @@
       <c r="K40" s="3"/>
       <c r="L40" s="8"/>
     </row>
-    <row r="41" spans="1:12" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+    <row r="41" spans="1:12" s="15" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
         <v>12</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K41" s="3"/>
-      <c r="L41" s="8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -4929,39 +5979,39 @@
       <c r="K42" s="3"/>
       <c r="L42" s="8"/>
     </row>
-    <row r="43" spans="1:12" ht="189" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+    <row r="43" spans="1:12" s="13" customFormat="1" ht="189" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
         <v>13</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3" t="s">
+      <c r="E43" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3" t="s">
+      <c r="I43" s="11"/>
+      <c r="J43" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="8" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K43" s="11"/>
+      <c r="L43" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -4981,7 +6031,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -5003,7 +6053,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="8"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -5021,42 +6071,42 @@
       <c r="K46" s="3"/>
       <c r="L46" s="8"/>
     </row>
-    <row r="47" spans="1:12" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+    <row r="47" spans="1:12" s="17" customFormat="1" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="16">
         <v>14</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3" t="s">
+      <c r="C47" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3" t="s">
+      <c r="I47" s="16"/>
+      <c r="J47" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="K47" s="3"/>
-      <c r="L47" s="8" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K47" s="16"/>
+      <c r="L47" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="11"/>
+      <c r="C48" s="8"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -5073,7 +6123,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="8"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>15</v>
       </c>
@@ -5081,16 +6131,16 @@
         <v>99</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3" t="s">
@@ -5104,76 +6154,76 @@
       </c>
       <c r="K49" s="3"/>
       <c r="L49" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="17" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="16">
         <v>16</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="3" t="s">
+      <c r="C50" s="16"/>
+      <c r="D50" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I50" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="J50" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="E50" s="3" t="s">
+    </row>
+    <row r="51" spans="1:12" s="15" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14">
+        <v>17</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K50" s="3"/>
-      <c r="L50" s="8" t="s">
+      <c r="E51" s="14" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>17</v>
-      </c>
-      <c r="B51" s="3" t="s">
+      <c r="F51" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="8" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -5191,73 +6241,73 @@
       <c r="K52" s="3"/>
       <c r="L52" s="8"/>
     </row>
-    <row r="53" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+    <row r="53" spans="1:12" s="13" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
         <v>18</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="11" t="s">
         <v>111</v>
       </c>
       <c r="C53" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="D53" s="3" t="s">
+    </row>
+    <row r="54" spans="1:12" s="17" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="16">
+        <v>19</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16">
+        <v>81401</v>
+      </c>
+      <c r="E54" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F53" s="3" t="s">
+      <c r="F54" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="H54" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="I54" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="K53" s="3"/>
-      <c r="L53" s="8" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>19</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="3">
-        <v>81401</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="8" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -5279,7 +6329,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="8"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -5297,7 +6347,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="8"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -5315,7 +6365,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="8"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -5337,7 +6387,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="8"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -5359,7 +6409,7 @@
       <c r="K59" s="3"/>
       <c r="L59" s="8"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -5381,7 +6431,7 @@
       <c r="K60" s="3"/>
       <c r="L60" s="8"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -5403,7 +6453,7 @@
       <c r="K61" s="3"/>
       <c r="L61" s="8"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -5425,165 +6475,165 @@
       <c r="K62" s="3"/>
       <c r="L62" s="8"/>
     </row>
-    <row r="63" spans="1:12" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+    <row r="63" spans="1:12" s="15" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="14">
         <v>20</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="3" t="s">
+      <c r="C63" s="14"/>
+      <c r="D63" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" s="13" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="11">
+        <v>21</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" s="15" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="14">
+        <v>22</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="G65" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="H65" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="I65" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="J65" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" s="13" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="11">
+        <v>23</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
-        <v>21</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="3" t="s">
+      <c r="E66" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K64" s="3"/>
-      <c r="L64" s="8" t="s">
+      <c r="F66" s="11" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
-        <v>22</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K65" s="3"/>
-      <c r="L65" s="8" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
-        <v>23</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C66" s="11"/>
-      <c r="D66" s="3" t="s">
+      <c r="G66" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="E66" s="3" t="s">
+    </row>
+    <row r="67" spans="1:12" s="17" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="16">
+        <v>24</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="E67" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="K66" s="3"/>
-      <c r="L66" s="8" t="s">
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
-        <v>24</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C67" s="11"/>
-      <c r="D67" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="8" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>25</v>
       </c>
@@ -5591,16 +6641,16 @@
         <v>149</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3" t="s">
@@ -5614,332 +6664,332 @@
       </c>
       <c r="K68" s="3"/>
       <c r="L68" s="8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" s="15" customFormat="1" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="14">
+        <v>26</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="E69" s="14" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
-        <v>26</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C69" s="11" t="s">
+      <c r="F69" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I69" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J69" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="F69" s="3" t="s">
+    </row>
+    <row r="70" spans="1:12" s="13" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A70" s="11">
+        <v>27</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="E70" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3" t="s">
+      <c r="F70" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" s="13" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="11">
+        <v>28</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" s="12"/>
+      <c r="D71" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" s="15" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="14">
+        <v>29</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" s="18"/>
+      <c r="D72" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="H72" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="I72" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="J72" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" s="15" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A73" s="14">
+        <v>30</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="14">
+        <v>31</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C74" s="18"/>
+      <c r="D74" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" s="15" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="14">
         <v>32</v>
       </c>
-      <c r="I69" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="K69" s="3"/>
-      <c r="L69" s="8" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
-        <v>27</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
-        <v>28</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C71"/>
-      <c r="D71" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="8" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
-        <v>29</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C72"/>
-      <c r="D72" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K72" s="3"/>
-      <c r="L72" s="8" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
-        <v>30</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3" t="s">
+      <c r="B75" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C75" s="18"/>
+      <c r="D75" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G75" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="H75" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="I75" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="J75" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" s="17" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="16">
+        <v>33</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="C76" s="19"/>
+      <c r="D76" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="H76" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="I76" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J76" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" s="15" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="14">
+        <v>34</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C77" s="18"/>
+      <c r="D77" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K73" s="3"/>
-      <c r="L73" s="8" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
-        <v>31</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C74"/>
-      <c r="D74" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="8" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
-        <v>32</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C75"/>
-      <c r="D75" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="J75" s="3" t="s">
+      <c r="I77" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J77" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="K75" s="3"/>
-      <c r="L75" s="8" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
-        <v>33</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="C76"/>
-      <c r="D76" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="F76" s="3" t="s">
+      <c r="K77" s="14"/>
+      <c r="L77" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="K76" s="3"/>
-      <c r="L76" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
-        <v>34</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C77"/>
-      <c r="D77" s="3" t="s">
+    </row>
+    <row r="78" spans="1:12" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="14">
+        <v>35</v>
+      </c>
+      <c r="B78" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="C78" s="18"/>
+      <c r="D78" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="E78" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="K77" s="3"/>
-      <c r="L77" s="8" t="s">
+      <c r="F78" s="14" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
-        <v>35</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="C78"/>
-      <c r="D78" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="G78" s="3" t="s">
+      <c r="G78" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="H78" s="3" t="s">
+      <c r="H78" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="I78" s="3" t="s">
+      <c r="I78" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="14" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>36</v>
       </c>
@@ -5947,16 +6997,16 @@
         <v>176</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3" t="s">
@@ -5970,723 +7020,1025 @@
       </c>
       <c r="K79" s="3"/>
       <c r="L79" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" s="17" customFormat="1" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="16">
+        <v>37</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C80" s="19"/>
+      <c r="D80" s="16" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
-        <v>37</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C80"/>
-      <c r="D80" s="3" t="s">
+      <c r="E80" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="G80" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H80" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="I80" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J80" s="16"/>
+      <c r="K80" s="16"/>
+      <c r="L80" s="16" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" s="13" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A81" s="11">
+        <v>38</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D81" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="E80" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="8" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
-        <v>38</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C81" s="8" t="s">
+      <c r="E81" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="H81" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="I81" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="E81" s="3" t="s">
+    </row>
+    <row r="82" spans="1:13" s="13" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="11">
+        <v>39</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="E82" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="8" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
-        <v>39</v>
-      </c>
-      <c r="B82" s="3" t="s">
+      <c r="F82" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="G82" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3" t="s">
+      <c r="H82" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="H82" s="3" t="s">
+      <c r="I82" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="I82" s="3" t="s">
+      <c r="J82" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="J82" s="3" t="s">
+      <c r="K82" s="11"/>
+      <c r="L82" s="11" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" s="17" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A83" s="16">
+        <v>40</v>
+      </c>
+      <c r="B83" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="K82" s="3"/>
-      <c r="L82" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
-        <v>40</v>
-      </c>
-      <c r="B83" s="3" t="s">
+      <c r="C83" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="16"/>
+      <c r="J83" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3" t="s">
+      <c r="K83" s="16"/>
+      <c r="L83" s="16" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" s="15" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="14">
+        <v>41</v>
+      </c>
+      <c r="B84" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="K83" s="3"/>
-      <c r="L83" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
-        <v>41</v>
-      </c>
-      <c r="B84" s="3" t="s">
+      <c r="C84" s="18"/>
+      <c r="D84" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="G84" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3" t="s">
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3" t="s">
+      <c r="K84" s="14"/>
+      <c r="L84" s="14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" s="13" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="11">
+        <v>42</v>
+      </c>
+      <c r="B85" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="K84" s="3"/>
-      <c r="L84" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
-        <v>42</v>
-      </c>
-      <c r="B85" s="3" t="s">
+      <c r="C85" s="12"/>
+      <c r="D85" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" s="13" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="11">
+        <v>43</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="C86" s="12"/>
+      <c r="D86" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" s="15" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="14">
+        <v>44</v>
+      </c>
+      <c r="B87" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
-        <v>43</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
-        <v>44</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="8" t="s">
+      <c r="C87" s="18"/>
+      <c r="D87" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="K87" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="L87" s="14" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="14">
+        <v>45</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="K87" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="L87" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
-        <v>45</v>
-      </c>
-      <c r="B88" s="8" t="s">
+      <c r="K88" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="K88" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L88" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L88" s="14" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>46</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
+        <v>204</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>343</v>
+      </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="L89" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" s="15" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="14">
+        <v>47</v>
+      </c>
+      <c r="B90" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="K89" s="3" t="s">
+      <c r="C90" s="18"/>
+      <c r="D90" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="L89" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
-        <v>47</v>
-      </c>
-      <c r="B90" s="3" t="s">
+      <c r="K90" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="K90" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="L90" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L90" s="14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>48</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>49</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
+        <v>213</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>414</v>
+      </c>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K92" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L92" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>50</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
+        <v>216</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>343</v>
+      </c>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="K93" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="L93" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" s="17" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="16">
+        <v>51</v>
+      </c>
+      <c r="B94" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="K93" s="8" t="s">
+      <c r="C94" s="16"/>
+      <c r="D94" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="F94" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="16"/>
+      <c r="J94" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="L93" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
-        <v>51</v>
-      </c>
-      <c r="B94" s="8" t="s">
+      <c r="K94" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="8" t="s">
+      <c r="L94" s="16" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" s="17" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="C95" s="19"/>
+      <c r="D95" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="F95" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="16"/>
+      <c r="L95" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="M95" s="17" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" s="17" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="C96" s="19"/>
+      <c r="D96" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="F96" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="16"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="16"/>
+      <c r="L96" s="16" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" s="17" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="C97" s="19"/>
+      <c r="D97" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F97" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="16"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="16"/>
+      <c r="L97" s="16" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" s="17" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="C98" s="19"/>
+      <c r="D98" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="F98" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="16"/>
+      <c r="J98" s="16"/>
+      <c r="K98" s="16"/>
+      <c r="L98" s="16" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>52</v>
+      </c>
+      <c r="B99" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="K94" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="L94" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
-        <v>52</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="K95" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="L95" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
-        <v>53</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="K96" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="L96" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
-        <v>54</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="K97" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="L97" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
-        <v>55</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="K98" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="L98" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
-        <v>56</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
+      <c r="C99" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>413</v>
+      </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
-      <c r="J99" s="3" t="s">
-        <v>236</v>
+      <c r="J99" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="K99" s="8" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="L99" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
+        <v>416</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>413</v>
+      </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
-      <c r="J100" s="3" t="s">
-        <v>240</v>
+      <c r="J100" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="K100" s="8" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="L100" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
+        <v>227</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>343</v>
+      </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="8" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="K101" s="8" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
-        <v>59</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" s="13" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="11">
+        <v>55</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C102" s="12"/>
+      <c r="D102" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="K102" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="L102" s="11" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>56</v>
+      </c>
+      <c r="B103" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="K102" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="L102" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
-        <v>60</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
+      <c r="C103" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>413</v>
+      </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
-      <c r="J103" s="8" t="s">
-        <v>248</v>
+      <c r="J103" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="K103" s="8" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="L103" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
+        <v>236</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>413</v>
+      </c>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
-      <c r="J104" s="8" t="s">
-        <v>251</v>
+      <c r="J104" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="K104" s="8" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="L104" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
+        <v>239</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>413</v>
+      </c>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="K105" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="L105" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="14">
+        <v>59</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="E106" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G106" s="14"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
+      <c r="J106" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="K106" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="L106" s="14" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="14">
+        <v>60</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="D107" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="E107" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="F107" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G107" s="14"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="14"/>
+      <c r="J107" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="K107" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="L107" s="14" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="14">
+        <v>61</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="E108" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="F108" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G108" s="14"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="14"/>
+      <c r="J108" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="K108" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="L108" s="14" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A109" s="14">
+        <v>62</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="D109" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="F109" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G109" s="14"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="14"/>
+      <c r="J109" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="K109" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="L109" s="14" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>63</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="K105" s="8" t="s">
+      <c r="K110" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="L105" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
-        <v>63</v>
-      </c>
-      <c r="B106" s="8" t="s">
+      <c r="L110" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>64</v>
+      </c>
+      <c r="B111" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="8" t="s">
+      <c r="C111" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="K106" s="8" t="s">
+      <c r="K111" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="L106" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
-        <v>64</v>
-      </c>
-      <c r="B107" s="8" t="s">
+      <c r="L111" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>65</v>
+      </c>
+      <c r="B112" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="K107" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="L107" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
-        <v>65</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="K108" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="L108" s="8" t="s">
-        <v>199</v>
+      <c r="C112" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="K112" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="L112" s="8" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/candidatePolymers.xlsx
+++ b/candidatePolymers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77A1757-825E-4F26-894A-E648C734BCD3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1716F7C7-B1B4-4F8F-A18E-D18A7DC0EE65}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C74DB7A0-B3A2-4579-87BB-9DD1A019994B}"/>
   </bookViews>
@@ -1357,110 +1357,112 @@
     <t>DUPLICATE?</t>
   </si>
   <si>
+    <t>Poly (vinyl alcohal) / cellulose acetate (PVA/CA)</t>
+  </si>
+  <si>
+    <t>9002-89-5</t>
+  </si>
+  <si>
+    <t>Electrospinning: A fascinating fiber fabrication technique
+https://www.sigmaaldrich.com/catalog/substance/polyvinylalcohol12345900289511?lang=es&amp;region=MX</t>
+  </si>
+  <si>
+    <t>9012-76-4</t>
+  </si>
+  <si>
+    <t>Electrospinning: A fascinating fiber fabrication technique
+https://www.sigmaaldrich.com/catalog/substance/chitosan12345901276411?lang=es&amp;region=MX</t>
+  </si>
+  <si>
+    <t>(C40H59N11O13)n</t>
+  </si>
+  <si>
+    <t>900496</t>
+  </si>
+  <si>
+    <t>Electrospinning: A fascinating fiber fabrication technique
+https://www.sigmaaldrich.com/catalog/substance/gelatinmethacryloyl1234598765?lang=es&amp;region=MX</t>
+  </si>
+  <si>
+    <t>9067-32-7</t>
+  </si>
+  <si>
+    <t>Electrospinning: A fascinating fiber fabrication technique
+https://www.sigmaaldrich.com/catalog/substance/hyaluronicacidsodiumsaltfromstreptococcusequi12345906732711?lang=es&amp;region=MX</t>
+  </si>
+  <si>
+    <t>51.1</t>
+  </si>
+  <si>
+    <t>51.2</t>
+  </si>
+  <si>
+    <t>Poly(styrene-co-butadiene)</t>
+  </si>
+  <si>
+    <t>[CH2CH(C6H5)]x(CH2CH=CHCH2)y</t>
+  </si>
+  <si>
+    <t>9003-55-8</t>
+  </si>
+  <si>
+    <t>Poly(styrene-co-α-methylstyrene)</t>
+  </si>
+  <si>
+    <t>[CH2CH(C6H5)]x[CH2C(CH3)(C6H5)]y</t>
+  </si>
+  <si>
+    <t>9011-11-4</t>
+  </si>
+  <si>
+    <t>https://www.sigmaaldrich.com/catalog/product/aldrich/457205?lang=es&amp;region=MX</t>
+  </si>
+  <si>
+    <t>51.3</t>
+  </si>
+  <si>
+    <t>51.4</t>
+  </si>
+  <si>
+    <t>Polybutadiene</t>
+  </si>
+  <si>
+    <t>9003-17-2</t>
+  </si>
+  <si>
+    <t>(CH2CH=CHCH2)n</t>
+  </si>
+  <si>
+    <t>https://www.sigmaaldrich.com/catalog/substance/polybutadiene12345900317211?lang=es&amp;region=MX</t>
+  </si>
+  <si>
+    <t>Polybutadiene, phenyl terminated</t>
+  </si>
+  <si>
+    <t>605258</t>
+  </si>
+  <si>
+    <t>average Mn ~1,800</t>
+  </si>
+  <si>
+    <t>https://www.sigmaaldrich.com/catalog/product/aldrich/200433?lang=es&amp;region=MX</t>
+  </si>
+  <si>
+    <t>average Mw ~140,000</t>
+  </si>
+  <si>
+    <t>https://www.sigmaaldrich.com/catalog/substance/polystyrenecobutadiene12345900355811?lang=es&amp;region=MX
+https://www.sigmaaldrich.com/catalog/product/aldrich/182877?lang=es&amp;region=MX</t>
+  </si>
+  <si>
+    <t>styrene 30 wt. %, average Mw ~140,000 by GPC, contains &lt;0.5 wt. % antioxidant</t>
+  </si>
+  <si>
     <t>Electrospinning: A fascinating fiber fabrication technique
 http://www.jsr.co.jp/jsr_e/pd/tpe_rb.shtml
-http://www.jsr.co.jp/jsr_e/pdf/pd/tpe/jsr-rb02.pdf</t>
-  </si>
-  <si>
-    <t>Poly (vinyl alcohal) / cellulose acetate (PVA/CA)</t>
-  </si>
-  <si>
-    <t>9002-89-5</t>
-  </si>
-  <si>
-    <t>Electrospinning: A fascinating fiber fabrication technique
-https://www.sigmaaldrich.com/catalog/substance/polyvinylalcohol12345900289511?lang=es&amp;region=MX</t>
-  </si>
-  <si>
-    <t>9012-76-4</t>
-  </si>
-  <si>
-    <t>Electrospinning: A fascinating fiber fabrication technique
-https://www.sigmaaldrich.com/catalog/substance/chitosan12345901276411?lang=es&amp;region=MX</t>
-  </si>
-  <si>
-    <t>(C40H59N11O13)n</t>
-  </si>
-  <si>
-    <t>900496</t>
-  </si>
-  <si>
-    <t>Electrospinning: A fascinating fiber fabrication technique
-https://www.sigmaaldrich.com/catalog/substance/gelatinmethacryloyl1234598765?lang=es&amp;region=MX</t>
-  </si>
-  <si>
-    <t>9067-32-7</t>
-  </si>
-  <si>
-    <t>Electrospinning: A fascinating fiber fabrication technique
-https://www.sigmaaldrich.com/catalog/substance/hyaluronicacidsodiumsaltfromstreptococcusequi12345906732711?lang=es&amp;region=MX</t>
-  </si>
-  <si>
-    <t>51.1</t>
-  </si>
-  <si>
-    <t>51.2</t>
-  </si>
-  <si>
-    <t>Poly(styrene-co-butadiene)</t>
-  </si>
-  <si>
-    <t>[CH2CH(C6H5)]x(CH2CH=CHCH2)y</t>
-  </si>
-  <si>
-    <t>9003-55-8</t>
-  </si>
-  <si>
-    <t>Poly(styrene-co-α-methylstyrene)</t>
-  </si>
-  <si>
-    <t>[CH2CH(C6H5)]x[CH2C(CH3)(C6H5)]y</t>
-  </si>
-  <si>
-    <t>9011-11-4</t>
-  </si>
-  <si>
-    <t>https://www.sigmaaldrich.com/catalog/product/aldrich/457205?lang=es&amp;region=MX</t>
-  </si>
-  <si>
-    <t>51.3</t>
-  </si>
-  <si>
-    <t>51.4</t>
-  </si>
-  <si>
-    <t>Polybutadiene</t>
-  </si>
-  <si>
-    <t>9003-17-2</t>
-  </si>
-  <si>
-    <t>(CH2CH=CHCH2)n</t>
-  </si>
-  <si>
-    <t>https://www.sigmaaldrich.com/catalog/substance/polybutadiene12345900317211?lang=es&amp;region=MX</t>
-  </si>
-  <si>
-    <t>Polybutadiene, phenyl terminated</t>
-  </si>
-  <si>
-    <t>605258</t>
-  </si>
-  <si>
-    <t>average Mn ~1,800</t>
-  </si>
-  <si>
-    <t>https://www.sigmaaldrich.com/catalog/product/aldrich/200433?lang=es&amp;region=MX</t>
-  </si>
-  <si>
-    <t>average Mw ~140,000</t>
-  </si>
-  <si>
-    <t>https://www.sigmaaldrich.com/catalog/substance/polystyrenecobutadiene12345900355811?lang=es&amp;region=MX
-https://www.sigmaaldrich.com/catalog/product/aldrich/182877?lang=es&amp;region=MX</t>
-  </si>
-  <si>
-    <t>styrene 30 wt. %, average Mw ~140,000 by GPC, contains &lt;0.5 wt. % antioxidant</t>
+http://www.jsr.co.jp/jsr_e/pdf/pd/tpe/jsr-rb02.pdf
+Syndiotactic 1,2-polybutadiene fibers produced by electrospinning (https://www.infona.pl/resource/bwmeta1.element.elsevier-fe0e459f-dd19-3cfe-8279-71054301b885)
+https://www.sciencedirect.com/science/article/pii/S0167577X06008196</t>
   </si>
 </sst>
 </file>
@@ -2592,14 +2594,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>2500311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
+      <xdr:colOff>1166812</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>762000</xdr:rowOff>
+      <xdr:rowOff>1152406</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2629,8 +2631,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4202906" y="24717375"/>
-          <a:ext cx="771525" cy="762000"/>
+          <a:off x="4286250" y="17287874"/>
+          <a:ext cx="1166812" cy="1152407"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2841,7 +2843,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>192881</xdr:colOff>
+      <xdr:colOff>192880</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>1114425</xdr:rowOff>
     </xdr:to>
@@ -4982,8 +4984,8 @@
   <dimension ref="A1:M112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4994,11 +4996,11 @@
     <col min="4" max="4" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.28515625" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="62" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="45" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="54.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="73.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="50.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="62" style="2" customWidth="1"/>
+    <col min="9" max="9" width="45" style="2" customWidth="1"/>
+    <col min="10" max="10" width="54.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="73.7109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="118" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="41.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="2"/>
@@ -6157,7 +6159,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="17" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" s="17" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>16</v>
       </c>
@@ -7485,25 +7487,25 @@
         <v>221</v>
       </c>
       <c r="L94" s="16" t="s">
-        <v>415</v>
+        <v>447</v>
       </c>
     </row>
     <row r="95" spans="1:13" s="17" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C95" s="19"/>
       <c r="D95" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G95" s="16"/>
       <c r="H95" s="16"/>
@@ -7511,25 +7513,25 @@
       <c r="J95" s="16"/>
       <c r="K95" s="16"/>
       <c r="L95" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="M95" s="17" t="s">
         <v>446</v>
-      </c>
-      <c r="M95" s="17" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="96" spans="1:13" s="17" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C96" s="19"/>
       <c r="D96" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F96" s="16" t="s">
         <v>302</v>
@@ -7540,22 +7542,22 @@
       <c r="J96" s="16"/>
       <c r="K96" s="16"/>
       <c r="L96" s="16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="97" spans="1:12" s="17" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C97" s="19"/>
       <c r="D97" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="E97" s="16" t="s">
         <v>438</v>
-      </c>
-      <c r="E97" s="16" t="s">
-        <v>439</v>
       </c>
       <c r="F97" s="16" t="s">
         <v>302</v>
@@ -7566,25 +7568,25 @@
       <c r="J97" s="16"/>
       <c r="K97" s="16"/>
       <c r="L97" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="98" spans="1:12" s="17" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C98" s="19"/>
       <c r="D98" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E98" s="16" t="s">
         <v>302</v>
       </c>
       <c r="F98" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G98" s="16"/>
       <c r="H98" s="16"/>
@@ -7592,7 +7594,7 @@
       <c r="J98" s="16"/>
       <c r="K98" s="16"/>
       <c r="L98" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -7632,7 +7634,7 @@
         <v>53</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>413</v>
@@ -7700,7 +7702,7 @@
       </c>
       <c r="C102" s="12"/>
       <c r="D102" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E102" s="11" t="s">
         <v>278</v>
@@ -7718,7 +7720,7 @@
         <v>232</v>
       </c>
       <c r="L102" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -7828,7 +7830,7 @@
         <v>293</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E106" s="14" t="s">
         <v>302</v>
@@ -7846,7 +7848,7 @@
         <v>243</v>
       </c>
       <c r="L106" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="107" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7860,7 +7862,7 @@
         <v>293</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E107" s="14" t="s">
         <v>302</v>
@@ -7878,7 +7880,7 @@
         <v>246</v>
       </c>
       <c r="L107" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="108" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7892,10 +7894,10 @@
         <v>293</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E108" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F108" s="14" t="s">
         <v>302</v>
@@ -7910,7 +7912,7 @@
         <v>249</v>
       </c>
       <c r="L108" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="109" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -7924,7 +7926,7 @@
         <v>293</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E109" s="14" t="s">
         <v>302</v>
@@ -7942,7 +7944,7 @@
         <v>252</v>
       </c>
       <c r="L109" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">

--- a/candidatePolymers.xlsx
+++ b/candidatePolymers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1716F7C7-B1B4-4F8F-A18E-D18A7DC0EE65}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767B0B38-C5B6-42E5-8088-83D4D1B59977}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C74DB7A0-B3A2-4579-87BB-9DD1A019994B}"/>
   </bookViews>
@@ -2594,14 +2594,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>2500311</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1166812</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>1152406</xdr:rowOff>
+      <xdr:rowOff>1152407</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2631,7 +2631,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4286250" y="17287874"/>
+          <a:off x="4286250" y="24717375"/>
           <a:ext cx="1166812" cy="1152407"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2723,7 +2723,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>928689</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>762001</xdr:rowOff>
+      <xdr:rowOff>762000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2845,7 +2845,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>192880</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1114425</xdr:rowOff>
+      <xdr:rowOff>923925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4380,67 +4380,6 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>666869</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>571500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Picture 47" descr="https://www.sigmaaldrich.com/content/dam/sigma-aldrich/structure6/124/mfcd00081922.eps/_jcr_content/renditions/mfcd00081922-large.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D33098-857F-495D-8BF6-4D591B7B397D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4202906" y="62055375"/>
-          <a:ext cx="666869" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>94</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -4464,7 +4403,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4525,7 +4464,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4586,7 +4525,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4647,7 +4586,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4984,8 +4923,8 @@
   <dimension ref="A1:M112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F96" sqref="F96"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5109,7 +5048,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -5161,7 +5100,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="9"/>
       <c r="C6" s="8"/>
@@ -5209,7 +5148,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -5229,7 +5168,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -5247,7 +5186,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -5267,7 +5206,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5317,7 +5256,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5333,7 +5272,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5351,7 +5290,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -5367,7 +5306,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -5417,7 +5356,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -5435,7 +5374,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5485,7 +5424,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5505,7 +5444,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5527,7 +5466,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5547,7 +5486,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5595,7 +5534,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>9</v>
       </c>
@@ -5693,7 +5632,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5713,7 +5652,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="8"/>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5733,7 +5672,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5753,7 +5692,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5769,7 +5708,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="8"/>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5791,7 +5730,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="8"/>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5811,7 +5750,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="8"/>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5829,7 +5768,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="8"/>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5847,7 +5786,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="8"/>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5867,7 +5806,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="8"/>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5883,7 +5822,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -5903,7 +5842,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="8"/>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -5959,7 +5898,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -6013,7 +5952,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -6033,7 +5972,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -6055,7 +5994,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="8"/>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -6105,7 +6044,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="8"/>
@@ -6125,7 +6064,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="8"/>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>15</v>
       </c>
@@ -6225,7 +6164,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -6309,7 +6248,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -6331,7 +6270,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="8"/>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -6349,7 +6288,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="8"/>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -6367,7 +6306,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="8"/>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -6389,7 +6328,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="8"/>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -6411,7 +6350,7 @@
       <c r="K59" s="3"/>
       <c r="L59" s="8"/>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -6433,7 +6372,7 @@
       <c r="K60" s="3"/>
       <c r="L60" s="8"/>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -6455,7 +6394,7 @@
       <c r="K61" s="3"/>
       <c r="L61" s="8"/>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -6635,7 +6574,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>25</v>
       </c>
@@ -6991,7 +6930,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>36</v>
       </c>
@@ -7299,7 +7238,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>46</v>
       </c>
@@ -7361,7 +7300,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>48</v>
       </c>
@@ -7428,7 +7367,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>50</v>
       </c>
@@ -7597,7 +7536,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>52</v>
       </c>
@@ -7629,7 +7568,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>53</v>
       </c>
@@ -7661,7 +7600,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>54</v>
       </c>
@@ -7693,7 +7632,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="102" spans="1:12" s="13" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" s="13" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11">
         <v>55</v>
       </c>
@@ -7723,7 +7662,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>56</v>
       </c>
@@ -7755,7 +7694,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>57</v>
       </c>
@@ -7787,7 +7726,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>58</v>
       </c>
@@ -7947,7 +7886,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>63</v>
       </c>
@@ -7979,7 +7918,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>64</v>
       </c>
@@ -8011,7 +7950,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>65</v>
       </c>
